--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="460" windowWidth="19040" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="12560" yWindow="460" windowWidth="19040" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parts list" sheetId="1" r:id="rId1"/>
     <sheet name="Led layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>LED SETUP</t>
   </si>
@@ -253,6 +254,159 @@
   </si>
   <si>
     <t>only need 64 leds - over half of leds left over</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>d0</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>A6/D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>A8/D8</t>
+  </si>
+  <si>
+    <t>A9/D9</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>vcc</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>A10/D10</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Toggle btn</t>
+  </si>
+  <si>
+    <t>Inc btn</t>
+  </si>
+  <si>
+    <t>Dec Btn</t>
+  </si>
+  <si>
+    <t>Fn/Tap</t>
+  </si>
+  <si>
+    <t>BPM Led</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pro Micro Pin</t>
+  </si>
+  <si>
+    <t>Pattern Mode Led</t>
+  </si>
+  <si>
+    <t>Brightness mode led</t>
+  </si>
+  <si>
+    <t>Hue speed mode led</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>LCD RS</t>
+  </si>
+  <si>
+    <t>LCD Enable</t>
+  </si>
+  <si>
+    <t>LCD D4</t>
+  </si>
+  <si>
+    <t>LCD D5</t>
+  </si>
+  <si>
+    <t>LCD D6</t>
+  </si>
+  <si>
+    <t>LCD D7</t>
+  </si>
+  <si>
+    <t>LCD R/W</t>
+  </si>
+  <si>
+    <t>LED Pin</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>pull down</t>
+  </si>
+  <si>
+    <t>260ohm</t>
+  </si>
+  <si>
+    <t>220ohm (close to ws2812s)</t>
   </si>
 </sst>
 </file>
@@ -311,9 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -322,6 +473,9 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2205,12 +2359,15 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7">
+      <c r="C2" s="3"/>
+      <c r="D2" s="6">
         <v>21.44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>75</v>
@@ -2220,88 +2377,103 @@
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>4.32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2309,10 +2481,10 @@
       <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F11" t="s">
@@ -2323,10 +2495,10 @@
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F12" t="s">
@@ -2337,13 +2509,13 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>20</v>
       </c>
       <c r="F13" t="s">
@@ -2354,13 +2526,13 @@
       <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>2.5</v>
       </c>
       <c r="F14" t="s">
@@ -2371,46 +2543,52 @@
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6">
+      <c r="C16" s="3"/>
+      <c r="D16" s="5">
         <v>2</v>
       </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2418,25 +2596,28 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2444,14 +2625,17 @@
       <c r="A23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>69</v>
@@ -2461,10 +2645,10 @@
       <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2561,16 +2745,16 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
@@ -2853,4 +3037,318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>